--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3AF4C89-B3AA-446D-AA03-194359C3B059}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC00D5C-F0B2-4272-A303-F7CABD1E9D39}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="5160" windowWidth="19110" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="2010" windowWidth="19110" windowHeight="13470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -4180,7 +4180,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,7 +6333,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6404,7 +6404,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="1"/>
     </row>

--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC00D5C-F0B2-4272-A303-F7CABD1E9D39}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F425C7-49B3-4AEC-BD47-4E08B4773294}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="2010" windowWidth="19110" windowHeight="13470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BHA_REST1" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="BHA_REST2" sheetId="8" state="hidden" r:id="rId4"/>
     <sheet name="ADVANCED" sheetId="9" r:id="rId5"/>
+    <sheet name="TOP_DRIVE" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>BHA Type</t>
   </si>
@@ -269,13 +270,61 @@
   </si>
   <si>
     <t>Drill pipe (DPS)</t>
+  </si>
+  <si>
+    <t>Top Drive Axial Velocity Magnitude 1 (ft/min)</t>
+  </si>
+  <si>
+    <t>Top Drive Axial Velocity Magnitude 2 (ft/min)</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>Top Drive RPM Magnitude 1 (RPM)</t>
+  </si>
+  <si>
+    <t>Top Drive RPM Magnitude 2 (RPM)</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +350,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6332,7 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6478,4 +6538,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="6">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F425C7-49B3-4AEC-BD47-4E08B4773294}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA3F5D6-5B83-4A07-A55A-31449612BCAE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
   <si>
     <t>BHA Type</t>
   </si>
@@ -142,9 +142,6 @@
     <t>lbf/100ft^2</t>
   </si>
   <si>
-    <t>Friction Factor</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>Young's Modulus</t>
   </si>
   <si>
     <t>Bulk Modulus</t>
@@ -318,6 +312,15 @@
   </si>
   <si>
     <t>b6</t>
+  </si>
+  <si>
+    <t>Static Friction Factor</t>
+  </si>
+  <si>
+    <t>Dynamic Friction Factor</t>
+  </si>
+  <si>
+    <t>Young Modulus</t>
   </si>
 </sst>
 </file>
@@ -454,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4260,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -4295,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4335,7 +4342,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4374,7 +4381,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4413,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4452,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>27</v>
@@ -4491,7 +4498,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4530,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4569,7 +4576,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -4608,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -4647,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4686,7 +4693,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -4725,7 +4732,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -4764,7 +4771,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -4803,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4842,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4881,7 +4888,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -4917,10 +4924,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>29</v>
@@ -4959,7 +4966,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4998,7 +5005,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5037,7 +5044,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -5076,7 +5083,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -5115,7 +5122,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -5154,7 +5161,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -5193,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -5232,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -5271,7 +5278,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -5310,7 +5317,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -5349,7 +5356,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -5388,7 +5395,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -5427,7 +5434,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -6390,10 +6397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,12 +6419,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>9.4</v>
@@ -6428,7 +6435,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>65.5</v>
@@ -6461,78 +6468,87 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
-        <v>12.25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>20185</v>
+        <v>12.25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6">
-        <v>60808000000</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6">
+        <v>60808000000</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="10">
-        <v>210000000000</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1">
+        <v>92</v>
+      </c>
+      <c r="B11" s="10">
+        <v>210000000000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6544,7 +6560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6563,7 +6579,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6">
         <v>100</v>
@@ -6571,7 +6587,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6">
         <v>100</v>
@@ -6579,7 +6595,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
@@ -6587,7 +6603,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6">
         <v>35</v>
@@ -6595,7 +6611,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>37</v>
@@ -6603,7 +6619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6">
         <v>47</v>
@@ -6611,7 +6627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
         <v>72</v>
@@ -6619,7 +6635,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6">
         <v>75</v>
@@ -6627,7 +6643,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -6635,7 +6651,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -6643,7 +6659,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
@@ -6651,7 +6667,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -6659,7 +6675,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -6667,7 +6683,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -6675,7 +6691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -6683,7 +6699,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>

--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA3F5D6-5B83-4A07-A55A-31449612BCAE}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28EC13E-4876-4CC4-B1B4-9535CBBBFEB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
     <sheet name="BHA" sheetId="1" r:id="rId2"/>
     <sheet name="BHA_REST1" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="BHA_REST2" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="ADVANCED" sheetId="9" r:id="rId5"/>
-    <sheet name="TOP_DRIVE" sheetId="10" r:id="rId6"/>
+    <sheet name="Borehole_Properties" sheetId="12" r:id="rId5"/>
+    <sheet name="ADVANCED" sheetId="11" r:id="rId6"/>
+    <sheet name="TOP_DRIVE" sheetId="10" r:id="rId7"/>
+    <sheet name="steady_state_inputs" sheetId="9" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
   <si>
     <t>BHA Type</t>
   </si>
@@ -321,6 +323,39 @@
   </si>
   <si>
     <t>Young Modulus</t>
+  </si>
+  <si>
+    <t>Torsional Drag Coefficient</t>
+  </si>
+  <si>
+    <t>Stribeck Critical Velocity</t>
+  </si>
+  <si>
+    <t>ft/s</t>
+  </si>
+  <si>
+    <t>ROP steady state</t>
+  </si>
+  <si>
+    <t>RPM steady state</t>
+  </si>
+  <si>
+    <t>WOB initial</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>ft/hr</t>
+  </si>
+  <si>
+    <t>lbf-s/in</t>
   </si>
 </sst>
 </file>
@@ -398,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +477,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +495,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4246,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,7 +4521,7 @@
         <v>68608.245800000004</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>
@@ -4799,7 +4833,7 @@
         <v>12741.216600000002</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>13</v>
@@ -4955,7 +4989,7 @@
         <v>49878.650199999996</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>13</v>
@@ -5192,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5387,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -6396,11 +6430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72B133-B881-4CF1-A552-650940017511}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6486,69 +6520,38 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
-        <v>12.25</v>
+        <f>0.03/0.3048</f>
+        <v>9.8425196850393692E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
-        <v>20185</v>
+        <f>15000/4.4482216</f>
+        <v>3372.1341580644271</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6">
-        <v>60808000000</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="10">
-        <v>210000000000</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6557,11 +6560,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6C773C-31E2-448E-BF12-60F61B32A7E8}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20185</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6">
+        <v>60808000000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="10">
+        <v>210000000000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6582,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="6">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6590,7 +6703,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="6">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6598,7 +6711,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6606,7 +6719,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +6727,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6622,7 +6735,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +6743,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="6">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6751,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="6">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6759,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,7 +6767,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6775,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6783,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6678,7 +6791,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6">
-        <v>350</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6686,7 +6799,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="6">
-        <v>400</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +6807,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="6">
-        <v>450</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,10 +6815,135 @@
         <v>89</v>
       </c>
       <c r="B17" s="6">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28EC13E-4876-4CC4-B1B4-9535CBBBFEB1}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5C6A4C-5CB0-4043-BAF2-4577CEC12235}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Borehole_Properties" sheetId="12" r:id="rId5"/>
     <sheet name="ADVANCED" sheetId="11" r:id="rId6"/>
     <sheet name="TOP_DRIVE" sheetId="10" r:id="rId7"/>
-    <sheet name="steady_state_inputs" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="steady_state_inputs (2)" sheetId="13" r:id="rId8"/>
+    <sheet name="steady_state_inputs" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>BHA Type</t>
   </si>
@@ -177,88 +178,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>7 5/8" Power Mag Assembly #9 (Riser Mag)</t>
-  </si>
-  <si>
-    <t>1 Stand 23.40# TT-585</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #8 (Riser Mag)</t>
-  </si>
-  <si>
-    <t>27 Stands X 23.40#
-TT-585</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #7</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #6</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #5</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #4</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #3</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #2</t>
-  </si>
-  <si>
-    <t>7 5/8" Power Mag Assembly #1</t>
-  </si>
-  <si>
-    <t>5 Stands XZ3.40# TT-585</t>
-  </si>
-  <si>
-    <t>X-Over Sub</t>
-  </si>
-  <si>
-    <t>10 1/4" BRN Rode Protector</t>
-  </si>
-  <si>
-    <t>29 x 5-7/8" HWDP</t>
-  </si>
-  <si>
-    <t>10 x 8" Drill Collar</t>
-  </si>
-  <si>
-    <t>Downhole Screen</t>
-  </si>
-  <si>
-    <t>8" HOC (Directional &amp; Pulser)</t>
-  </si>
-  <si>
-    <t>8" HCIM Collar</t>
-  </si>
-  <si>
-    <t>8" PWD</t>
-  </si>
-  <si>
-    <t>8" DrillDOC</t>
-  </si>
-  <si>
-    <t>8" Float Sub BFF 5F6R GC</t>
-  </si>
-  <si>
-    <t>SSM 8-in Collar</t>
-  </si>
-  <si>
-    <t>12 1/4" Steering Mill</t>
-  </si>
-  <si>
-    <t>12 1/4" Flex Madrel</t>
-  </si>
-  <si>
-    <t>12 1/4" Secondary Mill</t>
-  </si>
-  <si>
-    <t>12 1/4" Lead Mill</t>
-  </si>
-  <si>
     <t>Number of Items</t>
   </si>
   <si>
@@ -331,9 +250,6 @@
     <t>Stribeck Critical Velocity</t>
   </si>
   <si>
-    <t>ft/s</t>
-  </si>
-  <si>
     <t>ROP steady state</t>
   </si>
   <si>
@@ -349,13 +265,22 @@
     <t>CCS</t>
   </si>
   <si>
-    <t>psi</t>
-  </si>
-  <si>
     <t>ft/hr</t>
   </si>
   <si>
-    <t>lbf-s/in</t>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>N sec/m</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>m/hr</t>
+  </si>
+  <si>
+    <t>COLLAR</t>
   </si>
 </sst>
 </file>
@@ -495,6 +420,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB77188-32FA-43EE-BD2E-FA6085E2DDB4}">
-  <dimension ref="A1:D687"/>
+  <dimension ref="A1:D686"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,1918 +739,876 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1">
+        <v>1640.4199475065616</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+200</f>
-        <v>200</v>
+        <v>3280.8398950131232</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A43" si="0">A3+200</f>
-        <v>400</v>
+        <v>4921.2598425196848</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>6889.7637795275587</v>
       </c>
       <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <v>8202.0997375328079</v>
       </c>
       <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>13123.359580052493</v>
       </c>
       <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>4600</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>5200</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="B29" s="9">
-        <v>0</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>5600</v>
-      </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f>A30+200</f>
-        <v>5800</v>
-      </c>
-      <c r="B31" s="9">
-        <v>0</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="B32" s="9">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>6200</v>
-      </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="B34" s="9">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>6600</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>6800</v>
-      </c>
-      <c r="B36" s="9">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="B38" s="9">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>7400</v>
-      </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f>A39+200</f>
-        <v>7600</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>7800</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="B42" s="9">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>8200</v>
-      </c>
-      <c r="B43" s="9">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
-        <v>0</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>8381</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="C44" s="11">
-        <v>253.3</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>8475</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="C45" s="11">
-        <v>257.61</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>8570</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="C46" s="11">
-        <v>241.46</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>8664</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C47" s="11">
-        <v>280.25</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>8758</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="C48" s="11">
-        <v>253.62</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>8852</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C49" s="11">
-        <v>239.95</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>8947</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="C50" s="11">
-        <v>263.43</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>9041</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C51" s="11">
-        <v>240.49</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>9135</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C52" s="11">
-        <v>293.62</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>9229</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="C53" s="11">
-        <v>301.02999999999997</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>9313</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="C54" s="11">
-        <v>283.72000000000003</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>9407</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="C55" s="11">
-        <v>334.4</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>9502</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="C56" s="11">
-        <v>322.02999999999997</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>9596</v>
-      </c>
-      <c r="B57" s="1">
-        <v>3.36</v>
-      </c>
-      <c r="C57" s="11">
-        <v>338.6</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>9690</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4.03</v>
-      </c>
-      <c r="C58" s="11">
-        <v>353.4</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>9784</v>
-      </c>
-      <c r="B59" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="C59" s="11">
-        <v>355.99</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>9879</v>
-      </c>
-      <c r="B60" s="1">
-        <v>9.02</v>
-      </c>
-      <c r="C60" s="11">
-        <v>358.51</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>9973</v>
-      </c>
-      <c r="B61" s="1">
-        <v>11.52</v>
-      </c>
-      <c r="C61" s="11">
-        <v>355.3</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>10067</v>
-      </c>
-      <c r="B62" s="1">
-        <v>14.04</v>
-      </c>
-      <c r="C62" s="11">
-        <v>350.61</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>10161</v>
-      </c>
-      <c r="B63" s="1">
-        <v>15.16</v>
-      </c>
-      <c r="C63" s="11">
-        <v>352.1</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>10257</v>
-      </c>
-      <c r="B64" s="1">
-        <v>19.57</v>
-      </c>
-      <c r="C64" s="11">
-        <v>354.44</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>10350</v>
-      </c>
-      <c r="B65" s="1">
-        <v>22.11</v>
-      </c>
-      <c r="C65" s="11">
-        <v>355.54</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>10444</v>
-      </c>
-      <c r="B66" s="1">
-        <v>22.69</v>
-      </c>
-      <c r="C66" s="11">
-        <v>352.99</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>10539</v>
-      </c>
-      <c r="B67" s="1">
-        <v>25.47</v>
-      </c>
-      <c r="C67" s="11">
-        <v>349.72</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>10633</v>
-      </c>
-      <c r="B68" s="1">
-        <v>26.58</v>
-      </c>
-      <c r="C68" s="11">
-        <v>350.95</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>10700</v>
-      </c>
-      <c r="B69" s="1">
-        <v>27.63</v>
-      </c>
-      <c r="C69" s="11">
-        <v>350.81</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>10764</v>
-      </c>
-      <c r="B70" s="1">
-        <v>27.18</v>
-      </c>
-      <c r="C70" s="11">
-        <v>352.26</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>10858</v>
-      </c>
-      <c r="B71" s="1">
-        <v>28.33</v>
-      </c>
-      <c r="C71" s="11">
-        <v>352.99</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>10953</v>
-      </c>
-      <c r="B72" s="1">
-        <v>31.98</v>
-      </c>
-      <c r="C72" s="11">
-        <v>353.69</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>11048</v>
-      </c>
-      <c r="B73" s="1">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="C73" s="11">
-        <v>353.67</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>11142</v>
-      </c>
-      <c r="B74" s="1">
-        <v>35.590000000000003</v>
-      </c>
-      <c r="C74" s="11">
-        <v>354.12</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>11236</v>
-      </c>
-      <c r="B75" s="1">
-        <v>38.4</v>
-      </c>
-      <c r="C75" s="11">
-        <v>354.66</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>11331</v>
-      </c>
-      <c r="B76" s="1">
-        <v>40.79</v>
-      </c>
-      <c r="C76" s="11">
-        <v>355.24</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>11425</v>
-      </c>
-      <c r="B77" s="1">
-        <v>43.82</v>
-      </c>
-      <c r="C77" s="11">
-        <v>355.23</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>11517</v>
-      </c>
-      <c r="B78" s="1">
-        <v>46.28</v>
-      </c>
-      <c r="C78" s="11">
-        <v>356.21</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>11615</v>
-      </c>
-      <c r="B79" s="1">
-        <v>49.61</v>
-      </c>
-      <c r="C79" s="11">
-        <v>356.91</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>11709</v>
-      </c>
-      <c r="B80" s="1">
-        <v>52.61</v>
-      </c>
-      <c r="C80" s="11">
-        <v>356.44</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>11804</v>
-      </c>
-      <c r="B81" s="1">
-        <v>55.21</v>
-      </c>
-      <c r="C81" s="11">
-        <v>356.22</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>11899</v>
-      </c>
-      <c r="B82" s="1">
-        <v>57.64</v>
-      </c>
-      <c r="C82" s="11">
-        <v>356.03</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>11993</v>
-      </c>
-      <c r="B83" s="1">
-        <v>61.45</v>
-      </c>
-      <c r="C83" s="11">
-        <v>356.27</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>12088</v>
-      </c>
-      <c r="B84" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="C84" s="11">
-        <v>357.32</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>12182</v>
-      </c>
-      <c r="B85" s="1">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C85" s="11">
-        <v>357.73</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>12277</v>
-      </c>
-      <c r="B86" s="1">
-        <v>69.91</v>
-      </c>
-      <c r="C86" s="11">
-        <v>357.94</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>12372</v>
-      </c>
-      <c r="B87" s="1">
-        <v>68.52</v>
-      </c>
-      <c r="C87" s="11">
-        <v>358.05</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>12466</v>
-      </c>
-      <c r="B88" s="1">
-        <v>67.59</v>
-      </c>
-      <c r="C88" s="11">
-        <v>357.96</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>12503</v>
-      </c>
-      <c r="B89" s="1">
-        <v>68.459999999999994</v>
-      </c>
-      <c r="C89" s="11">
-        <v>359.41</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>12591</v>
-      </c>
-      <c r="B90" s="1">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0.99</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>12686</v>
-      </c>
-      <c r="B91" s="1">
-        <v>70.22</v>
-      </c>
-      <c r="C91" s="11">
-        <v>2.0499999999999998</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>12780</v>
-      </c>
-      <c r="B92" s="1">
-        <v>71.010000000000005</v>
-      </c>
-      <c r="C92" s="11">
-        <v>3.99</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>12874</v>
-      </c>
-      <c r="B93" s="1">
-        <v>71.010000000000005</v>
-      </c>
-      <c r="C93" s="11">
-        <v>6.31</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>12954</v>
-      </c>
-      <c r="B94" s="1">
-        <v>70.34</v>
-      </c>
-      <c r="C94" s="11">
-        <v>8.0299999999999994</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>13048</v>
-      </c>
-      <c r="B95" s="1">
-        <v>70.58</v>
-      </c>
-      <c r="C95" s="11">
-        <v>9.19</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>13143</v>
-      </c>
-      <c r="B96" s="1">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="C96" s="11">
-        <v>10.43</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>13237</v>
-      </c>
-      <c r="B97" s="1">
-        <v>71.17</v>
-      </c>
-      <c r="C97" s="11">
-        <v>11.92</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>13332</v>
-      </c>
-      <c r="B98" s="1">
-        <v>71.47</v>
-      </c>
-      <c r="C98" s="11">
-        <v>13.34</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>13425</v>
-      </c>
-      <c r="B99" s="1">
-        <v>71.53</v>
-      </c>
-      <c r="C99" s="11">
-        <v>14.14</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>13520.000000000002</v>
-      </c>
-      <c r="B100" s="1">
-        <v>72.19</v>
-      </c>
-      <c r="C100" s="11">
-        <v>15.4</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>13613</v>
-      </c>
-      <c r="B101" s="1">
-        <v>72.5</v>
-      </c>
-      <c r="C101" s="11">
-        <v>18.05</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>13709</v>
-      </c>
-      <c r="B102" s="1">
-        <v>72.739999999999995</v>
-      </c>
-      <c r="C102" s="11">
-        <v>20.09</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>13806</v>
-      </c>
-      <c r="B103" s="1">
-        <v>73.180000000000007</v>
-      </c>
-      <c r="C103" s="11">
-        <v>21.86</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>13901</v>
-      </c>
-      <c r="B104" s="1">
-        <v>74.44</v>
-      </c>
-      <c r="C104" s="11">
-        <v>23.94</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>13995</v>
-      </c>
-      <c r="B105" s="1">
-        <v>75.430000000000007</v>
-      </c>
-      <c r="C105" s="11">
-        <v>26.06</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>14089.000000000002</v>
-      </c>
-      <c r="B106" s="1">
-        <v>76.23</v>
-      </c>
-      <c r="C106" s="11">
-        <v>27.43</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>14183.999999999998</v>
-      </c>
-      <c r="B107" s="1">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="C107" s="11">
-        <v>27.74</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>14378.000000000002</v>
-      </c>
-      <c r="B108" s="1">
-        <v>76.77</v>
-      </c>
-      <c r="C108" s="11">
-        <v>27.58</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>14464.999999999998</v>
-      </c>
-      <c r="B109" s="1">
-        <v>76.86</v>
-      </c>
-      <c r="C109" s="11">
-        <v>27.33</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>14558</v>
-      </c>
-      <c r="B110" s="1">
-        <v>76.77</v>
-      </c>
-      <c r="C110" s="11">
-        <v>27.55</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>14650.000000000002</v>
-      </c>
-      <c r="B111" s="1">
-        <v>76.95</v>
-      </c>
-      <c r="C111" s="11">
-        <v>27.79</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>14744</v>
-      </c>
-      <c r="B112" s="1">
-        <v>76.89</v>
-      </c>
-      <c r="C112" s="11">
-        <v>28.19</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>14838</v>
-      </c>
-      <c r="B113" s="1">
-        <v>76.33</v>
-      </c>
-      <c r="C113" s="11">
-        <v>27.91</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>14930.000000000002</v>
-      </c>
-      <c r="B114" s="1">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="C114" s="11">
-        <v>27.4</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>15024</v>
-      </c>
-      <c r="B115" s="1">
-        <v>76.23</v>
-      </c>
-      <c r="C115" s="11">
-        <v>27.36</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>15117</v>
-      </c>
-      <c r="B116" s="1">
-        <v>76.569999999999993</v>
-      </c>
-      <c r="C116" s="11">
-        <v>27.83</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>15209.999999999998</v>
-      </c>
-      <c r="B117" s="1">
-        <v>76.52</v>
-      </c>
-      <c r="C117" s="11">
-        <v>27.91</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>15303</v>
-      </c>
-      <c r="B118" s="1">
-        <v>76.39</v>
-      </c>
-      <c r="C118" s="11">
-        <v>28.1</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>15396.000000000002</v>
-      </c>
-      <c r="B119" s="1">
-        <v>76.55</v>
-      </c>
-      <c r="C119" s="11">
-        <v>28.39</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>15489</v>
-      </c>
-      <c r="B120" s="1">
-        <v>76.67</v>
-      </c>
-      <c r="C120" s="11">
-        <v>28.51</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>15582</v>
-      </c>
-      <c r="B121" s="1">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="C121" s="11">
-        <v>28.6</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>15676.000000000002</v>
-      </c>
-      <c r="B122" s="1">
-        <v>76.64</v>
-      </c>
-      <c r="C122" s="11">
-        <v>28.4</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>15769</v>
-      </c>
-      <c r="B123" s="1">
-        <v>76.55</v>
-      </c>
-      <c r="C123" s="11">
-        <v>28.35</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>15862</v>
-      </c>
-      <c r="B124" s="1">
-        <v>76.510000000000005</v>
-      </c>
-      <c r="C124" s="11">
-        <v>28.74</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>15954.999999999998</v>
-      </c>
-      <c r="B125" s="1">
-        <v>76.36</v>
-      </c>
-      <c r="C125" s="11">
-        <v>28.66</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>16048</v>
-      </c>
-      <c r="B126" s="1">
-        <v>76.23</v>
-      </c>
-      <c r="C126" s="11">
-        <v>28.61</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>16141.000000000002</v>
-      </c>
-      <c r="B127" s="1">
-        <v>75.930000000000007</v>
-      </c>
-      <c r="C127" s="11">
-        <v>28.93</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>16234</v>
-      </c>
-      <c r="B128" s="1">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="C128" s="11">
-        <v>28.8</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>16327</v>
-      </c>
-      <c r="B129" s="1">
-        <v>76.17</v>
-      </c>
-      <c r="C129" s="11">
-        <v>28.75</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>16420</v>
-      </c>
-      <c r="B130" s="1">
-        <v>76.23</v>
-      </c>
-      <c r="C130" s="11">
-        <v>28.5</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>16513</v>
-      </c>
-      <c r="B131" s="1">
-        <v>76.36</v>
-      </c>
-      <c r="C131" s="11">
-        <v>28.4</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>16605</v>
-      </c>
-      <c r="B132" s="1">
-        <v>76.67</v>
-      </c>
-      <c r="C132" s="11">
-        <v>28.77</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>16699</v>
-      </c>
-      <c r="B133" s="1">
-        <v>76.290000000000006</v>
-      </c>
-      <c r="C133" s="11">
-        <v>28.31</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>16793</v>
-      </c>
-      <c r="B134" s="1">
-        <v>76.33</v>
-      </c>
-      <c r="C134" s="11">
-        <v>28.38</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>16886</v>
-      </c>
-      <c r="B135" s="1">
-        <v>76.45</v>
-      </c>
-      <c r="C135" s="11">
-        <v>28.4</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>16978</v>
-      </c>
-      <c r="B136" s="1">
-        <v>76.38</v>
-      </c>
-      <c r="C136" s="11">
-        <v>28.25</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>17070</v>
-      </c>
-      <c r="B137" s="1">
-        <v>76.39</v>
-      </c>
-      <c r="C137" s="11">
-        <v>28.12</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>17163</v>
-      </c>
-      <c r="B138" s="1">
-        <v>76.23</v>
-      </c>
-      <c r="C138" s="11">
-        <v>28.29</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>17256</v>
-      </c>
-      <c r="B139" s="1">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="C139" s="11">
-        <v>28.57</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>17349</v>
-      </c>
-      <c r="B140" s="1">
-        <v>75.88</v>
-      </c>
-      <c r="C140" s="11">
-        <v>29.55</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>17442</v>
-      </c>
-      <c r="B141" s="1">
-        <v>75.97</v>
-      </c>
-      <c r="C141" s="11">
-        <v>30.92</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>17535</v>
-      </c>
-      <c r="B142" s="1">
-        <v>75.62</v>
-      </c>
-      <c r="C142" s="11">
-        <v>31.85</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>17628</v>
-      </c>
-      <c r="B143" s="1">
-        <v>75.209999999999994</v>
-      </c>
-      <c r="C143" s="11">
-        <v>32.92</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>17721</v>
-      </c>
-      <c r="B144" s="1">
-        <v>74.83</v>
-      </c>
-      <c r="C144" s="11">
-        <v>33.869999999999997</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>17814</v>
-      </c>
-      <c r="B145" s="1">
-        <v>74.7</v>
-      </c>
-      <c r="C145" s="11">
-        <v>34.67</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>17909</v>
-      </c>
-      <c r="B146" s="1">
-        <v>74.349999999999994</v>
-      </c>
-      <c r="C146" s="11">
-        <v>35.25</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>18002</v>
-      </c>
-      <c r="B147" s="1">
-        <v>74.28</v>
-      </c>
-      <c r="C147" s="11">
-        <v>35.26</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>18095</v>
-      </c>
-      <c r="B148" s="1">
-        <v>71.95</v>
-      </c>
-      <c r="C148" s="11">
-        <v>35.39</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>18188</v>
-      </c>
-      <c r="B149" s="1">
-        <v>70.010000000000005</v>
-      </c>
-      <c r="C149" s="11">
-        <v>36.15</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>18282</v>
-      </c>
-      <c r="B150" s="1">
-        <v>67.66</v>
-      </c>
-      <c r="C150" s="11">
-        <v>37.75</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>18375</v>
-      </c>
-      <c r="B151" s="1">
-        <v>65.87</v>
-      </c>
-      <c r="C151" s="11">
-        <v>38.47</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>18469</v>
-      </c>
-      <c r="B152" s="1">
-        <v>63</v>
-      </c>
-      <c r="C152" s="11">
-        <v>39.08</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="11"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>18562</v>
-      </c>
-      <c r="B153" s="1">
-        <v>60.53</v>
-      </c>
-      <c r="C153" s="11">
-        <v>40.67</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>18655</v>
-      </c>
-      <c r="B154" s="1">
-        <v>58.37</v>
-      </c>
-      <c r="C154" s="11">
-        <v>42.77</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>18748</v>
-      </c>
-      <c r="B155" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="C155" s="11">
-        <v>43.27</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="11"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>18841</v>
-      </c>
-      <c r="B156" s="1">
-        <v>54.13</v>
-      </c>
-      <c r="C156" s="11">
-        <v>44.12</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>18934</v>
-      </c>
-      <c r="B157" s="1">
-        <v>52.14</v>
-      </c>
-      <c r="C157" s="11">
-        <v>44.73</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>19041</v>
-      </c>
-      <c r="B158" s="1">
-        <v>49.99</v>
-      </c>
-      <c r="C158" s="11">
-        <v>45.19</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>19134</v>
-      </c>
-      <c r="B159" s="1">
-        <v>48.66</v>
-      </c>
-      <c r="C159" s="11">
-        <v>47.82</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>19227</v>
-      </c>
-      <c r="B160" s="1">
-        <v>47.2</v>
-      </c>
-      <c r="C160" s="11">
-        <v>50.06</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>19321</v>
-      </c>
-      <c r="B161" s="1">
-        <v>45.07</v>
-      </c>
-      <c r="C161" s="11">
-        <v>52.58</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>19414</v>
-      </c>
-      <c r="B162" s="1">
-        <v>43.42</v>
-      </c>
-      <c r="C162" s="11">
-        <v>54.61</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>19507</v>
-      </c>
-      <c r="B163" s="1">
-        <v>41.74</v>
-      </c>
-      <c r="C163" s="11">
-        <v>57.08</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>19600</v>
-      </c>
-      <c r="B164" s="1">
-        <v>40.04</v>
-      </c>
-      <c r="C164" s="11">
-        <v>60.06</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="11"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>19693</v>
-      </c>
-      <c r="B165" s="1">
-        <v>38.72</v>
-      </c>
-      <c r="C165" s="11">
-        <v>63.59</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>19786</v>
-      </c>
-      <c r="B166" s="1">
-        <v>36.909999999999997</v>
-      </c>
-      <c r="C166" s="11">
-        <v>66.739999999999995</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>19879</v>
-      </c>
-      <c r="B167" s="1">
-        <v>35.79</v>
-      </c>
-      <c r="C167" s="11">
-        <v>67.680000000000007</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>19910</v>
-      </c>
-      <c r="B168" s="1">
-        <v>35.72</v>
-      </c>
-      <c r="C168" s="11">
-        <v>68.209999999999994</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>19994</v>
-      </c>
-      <c r="B169" s="1">
-        <v>35.6</v>
-      </c>
-      <c r="C169" s="11">
-        <v>69</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>20087</v>
-      </c>
-      <c r="B170" s="1">
-        <v>35.64</v>
-      </c>
-      <c r="C170" s="11">
-        <v>69.31</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="11"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>20185</v>
-      </c>
-      <c r="B171" s="1">
-        <v>35.64</v>
-      </c>
-      <c r="C171" s="11">
-        <v>69.31</v>
-      </c>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
@@ -4267,9 +3154,6 @@
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686" s="5"/>
-    </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C687" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4281,7 +3165,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -4336,23 +3220,24 @@
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>94.65</v>
+        <f>40/0.3048</f>
+        <v>131.23359580052494</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E30" si="0">E3+D2</f>
-        <v>4883.7899999999991</v>
+        <f t="shared" ref="E2:E4" si="0">E3+D2</f>
+        <v>323.58923884514434</v>
       </c>
       <c r="F2" s="1">
         <v>5.875</v>
       </c>
       <c r="G2" s="1">
-        <v>5.1529999999999996</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -4361,11 +3246,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>26.87*D2</f>
-        <v>2543.2455000000004</v>
+        <f>25.62*D2</f>
+        <v>3362.2047244094492</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
@@ -4373,26 +3258,27 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>47.65</v>
+        <f>28.63/0.3048</f>
+        <v>93.930446194225709</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>4789.1399999999994</v>
+        <v>192.3556430446194</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5.88</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -4401,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>5089.0199999999995</v>
+        <v>2406.545510333317</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -4415,23 +3301,24 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>94.65</v>
+        <f>30/0.3048</f>
+        <v>98.425196850393689</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4741.49</v>
+        <v>98.425196850393689</v>
       </c>
       <c r="F4">
-        <v>5.875</v>
+        <v>5.88</v>
       </c>
       <c r="G4">
-        <v>5.1529999999999996</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -4440,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2543.2455000000004</v>
+        <v>2521.7032940970839</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -4450,1057 +3337,220 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>47.77</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4646.84</v>
-      </c>
-      <c r="F5">
-        <v>7.6139999999999999</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>5101.8360000000002</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="C5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2553.34</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4599.07</v>
-      </c>
-      <c r="F6">
-        <v>5.875</v>
-      </c>
-      <c r="G6">
-        <v>5.1529999999999996</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>68608.245800000004</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>41.7</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2045.73</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4453.5600000000004</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>38.950000000000003</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2004.03</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4159.8600000000006</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>39.15</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1965.08</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>4181.2199999999993</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="C9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1925.9299999999998</v>
-      </c>
-      <c r="F10">
-        <v>7.33</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4090.4399999999996</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>40.869999999999997</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1887.6299999999999</v>
-      </c>
-      <c r="F11">
-        <v>7.33</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4364.9159999999993</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="C11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>38.369999999999997</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1846.76</v>
-      </c>
-      <c r="F12">
-        <v>7.4</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>4097.9159999999993</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>40.96</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1808.39</v>
-      </c>
-      <c r="F13">
-        <v>7.4</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>4374.5280000000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>474.18</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1767.43</v>
-      </c>
-      <c r="F14">
-        <v>5.875</v>
-      </c>
-      <c r="G14">
-        <v>5.1529999999999996</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>12741.216600000002</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="C14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4.53</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1293.25</v>
-      </c>
-      <c r="F15">
-        <v>8.31</v>
-      </c>
-      <c r="G15">
-        <v>3.25</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>710.62110000000007</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1288.72</v>
-      </c>
-      <c r="F16">
-        <v>8.25</v>
-      </c>
-      <c r="G16">
-        <v>3.25</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>752.61989999999992</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="C16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1283.83</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>3.5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>501.44240000000008</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="C17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6">
-        <v>876.1400000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1280.21</v>
-      </c>
-      <c r="F18">
-        <v>5.875</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>49878.650199999996</v>
-      </c>
-      <c r="K18" s="1">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="C18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>404.07000000000005</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>3.5</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>346.3</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="C19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>294.74</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>401.57000000000005</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>44246.368800000004</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="C20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>106.83000000000001</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1418.634</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="C21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>15.12</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>97.38000000000001</v>
-      </c>
-      <c r="F22">
-        <v>8.15</v>
-      </c>
-      <c r="G22">
-        <v>1.92</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>2286.1439999999998</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>82.26</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>1.92</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1154.23</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="C23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7.6599999999999993</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>74.56</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>1.92</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1098.444</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="C24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="F25">
-        <v>8.2189999999999994</v>
-      </c>
-      <c r="G25">
-        <v>2.37</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>926.90550000000007</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="C25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>58.35</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>369.29520000000002</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="C26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>30.42</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>55.89</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4885.4520000000002</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="C27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3.67</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>25.47</v>
-      </c>
-      <c r="F28">
-        <v>7.5</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>464.14490000000001</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="C28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11.96</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
-      </c>
-      <c r="F29">
-        <v>5.75</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>359.7568</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="C29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>7.29</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>9.84</v>
-      </c>
-      <c r="F30">
-        <v>7.5</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>921.96630000000005</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="C30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E31">
-        <f>D31</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>382.80599999999998</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="C31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6434,7 +4484,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6461,7 +4511,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>9.4</v>
+        <v>13.436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -6502,44 +4552,43 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
-        <f>0.03/0.3048</f>
-        <v>9.8425196850393692E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
-        <f>15000/4.4482216</f>
-        <v>3372.1341580644271</v>
+        <f>15000</f>
+        <v>15000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6564,7 +4613,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +4651,8 @@
         <v>39</v>
       </c>
       <c r="B3" s="1">
-        <v>20185</v>
+        <f>4000/0.3048</f>
+        <v>13123.359580052493</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
@@ -6613,7 +4663,8 @@
         <v>36</v>
       </c>
       <c r="B4" s="6">
-        <v>60808000000</v>
+        <f>60800000000</f>
+        <v>60800000000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -6621,9 +4672,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="10">
+        <v>65</v>
+      </c>
+      <c r="B5" s="6">
+        <f>210000000000</f>
         <v>210000000000</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6632,13 +4684,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B6" s="15">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +4726,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,130 +4744,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
-        <v>110</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6">
-        <v>110</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6824,6 +4876,131 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F0C45D-A8D2-4BB4-8B99-E7B938DCB392}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -6852,29 +5029,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>

--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Model_v2.1/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="663" documentId="8_{083A5A02-87F3-4AB6-8343-105FCB0EA3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E490080-0271-4908-A26E-F34A94CCC091}"/>
+  <xr:revisionPtr revIDLastSave="666" documentId="8_{083A5A02-87F3-4AB6-8343-105FCB0EA3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5327F2-A095-7445-99D8-31C3F004F1E7}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2560" windowWidth="28800" windowHeight="15440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -274,6 +274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,9 +576,9 @@
       <selection activeCell="H363" sqref="H363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -588,7 +592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -602,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>31.517967599410898</v>
       </c>
@@ -616,7 +620,7 @@
         <v>0.2069088373490714</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>63.035935198821797</v>
       </c>
@@ -630,7 +634,7 @@
         <v>0.30283642317635068</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>94.553902798232713</v>
       </c>
@@ -644,7 +648,7 @@
         <v>0.39876400900363013</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>126.07187039764359</v>
       </c>
@@ -658,7 +662,7 @@
         <v>0.49469159483090941</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>157.5898379970545</v>
       </c>
@@ -672,7 +676,7 @@
         <v>0.59061918065818875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>189.1078055964654</v>
       </c>
@@ -686,7 +690,7 @@
         <v>0.68654676648546809</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>220.62577319587629</v>
       </c>
@@ -700,7 +704,7 @@
         <v>0.78247435231274742</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>252.14374079528719</v>
       </c>
@@ -714,7 +718,7 @@
         <v>0.87840193814002676</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>283.66170839469811</v>
       </c>
@@ -728,7 +732,7 @@
         <v>0.9743295239673061</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>315.179675994109</v>
       </c>
@@ -742,7 +746,7 @@
         <v>1.070257109794585</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>346.6976435935199</v>
       </c>
@@ -756,7 +760,7 @@
         <v>1.099851983257681</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>378.21561119293079</v>
       </c>
@@ -770,7 +774,7 @@
         <v>0.80262191526568616</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>409.73357879234169</v>
       </c>
@@ -784,7 +788,7 @@
         <v>0.50539184727369113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>441.25154639175258</v>
       </c>
@@ -798,7 +802,7 @@
         <v>1.5056376364042829</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>472.76951399116348</v>
       </c>
@@ -812,7 +816,7 @@
         <v>2.7470184594025659</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>504.28748159057437</v>
       </c>
@@ -826,7 +830,7 @@
         <v>2.4875407196829729</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>535.80544918998532</v>
       </c>
@@ -840,7 +844,7 @@
         <v>2.2280629799633802</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>567.32341678939622</v>
       </c>
@@ -854,7 +858,7 @@
         <v>1.9685852402437869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>598.84138438880711</v>
       </c>
@@ -868,7 +872,7 @@
         <v>1.709107500524194</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>630.35935198821801</v>
       </c>
@@ -882,7 +886,7 @@
         <v>1.4496297608046009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>661.8773195876289</v>
       </c>
@@ -896,7 +900,7 @@
         <v>1.1901520210850081</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>693.3952871870398</v>
       </c>
@@ -910,7 +914,7 @@
         <v>0.93067428136541475</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>724.91325478645069</v>
       </c>
@@ -924,7 +928,7 @@
         <v>0.67119654164582165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>756.43122238586159</v>
       </c>
@@ -938,7 +942,7 @@
         <v>0.41171880192622862</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>787.94918998527248</v>
       </c>
@@ -952,7 +956,7 @@
         <v>0.82050879456232251</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>819.46715758468338</v>
       </c>
@@ -966,7 +970,7 @@
         <v>0.87929847926494598</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>850.98512518409427</v>
       </c>
@@ -980,7 +984,7 @@
         <v>0.81032114003258426</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>882.50309278350517</v>
       </c>
@@ -994,7 +998,7 @@
         <v>0.74134380080022244</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>914.02106038291606</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>0.67236646156786062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>945.53902798232696</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>0.6033891223354988</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>977.05699558173785</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>0.53441178310313697</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1008.574963181149</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>0.46543444387077521</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1040.09293078056</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>0.3964571046384131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1071.6108983799711</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>0.33710315924806861</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1103.128865979382</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>0.32114368454743653</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1134.646833578792</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>0.30518420984680428</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1166.1648011782031</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>0.28922473514617209</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1197.682768777614</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>0.27326526044554</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1229.2007363770249</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>0.25730578574490792</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1260.718703976436</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>0.2413463110442757</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1292.2366715758469</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>0.22538683634364351</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1323.754639175258</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>0.2094273616430114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1355.2726067746689</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>0.19346788694237929</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1386.7905743740801</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>0.1938336646624903</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1418.30854197349</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>0.28244303451781982</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1449.8265095729009</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>0.37105240437314918</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1481.3444771723121</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>0.4596617742284787</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1512.8624447717229</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>0.54827114408380817</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1544.3804123711341</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>0.63688051393913758</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1575.898379970545</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>0.72548988379446722</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1607.4163475699561</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>0.81409925364979663</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1638.934315169367</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>0.81567089398955017</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1670.4522827687781</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>0.66849050751945338</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1701.970250368189</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>0.52131012104935648</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1733.488217967599</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>0.37412973457925969</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1765.0061855670101</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>0.31372579675469708</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1796.524153166421</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>0.72062046675747848</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1828.0421207658319</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>1.117840709354784</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1859.560088365243</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>1.000929483045301</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1891.0780559646539</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>0.88401825673581813</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1922.596023564065</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>0.76710703042633543</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1954.1139911634759</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>0.65019580411685274</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1985.6319587628871</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>0.53328457780736993</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2017.149926362297</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>0.41637335149788718</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2048.6678939617091</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>0.29946212518840359</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2080.18586156112</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>0.21939475066328229</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2111.7038291605299</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>0.21750524090042081</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2143.2217967599408</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>0.21561573113755941</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2174.7397643593522</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>0.21372622137469791</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2206.2577319587631</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>0.2118367116118364</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2237.775699558174</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>0.20994720184897489</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2269.2936671575849</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>0.20805769208611341</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2300.8116347569962</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>0.20616818232325201</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2332.3296023564071</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>0.20427867256039051</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2363.847569955818</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>0.202389162797529</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2395.365537555228</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>0.20049965303466749</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2426.8835051546389</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>0.19652535817951511</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2458.4014727540498</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>0.19180158377236139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2489.9194403534611</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>0.18707780936520771</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2521.437407952872</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>0.182354034958054</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2552.9553755522829</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>0.17763026055090031</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2584.4733431516938</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>0.1729064861437466</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2615.9913107511052</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>0.16818271173659291</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2647.5092783505161</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>0.1634589373294392</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2679.027245949927</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>0.15873516292228551</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2710.5452135493369</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>0.1540113885151318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2742.0631811487478</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>0.1498659603184132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2773.5811487481592</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>0.14897715380987109</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2805.0991163475701</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>0.14808834730132911</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2836.617083946981</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>0.14719954079278699</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2868.1350515463919</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>0.1463107342842449</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2899.6530191458028</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>0.14542192777570279</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2931.1709867452141</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>0.1445331212671607</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2962.688954344625</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>0.14364431475861861</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2994.206921944035</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>0.14275550825007649</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3025.7248895434459</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>0.14186670174153451</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3057.2428571428568</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>0.1409778952329924</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3088.7608247422681</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>0.14008908872445031</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3120.278792341679</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>0.1601608760982344</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3151.7967599410899</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>0.1825676779106655</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3183.3147275405008</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>0.2049744797230966</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3214.8326951399122</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>0.2273812815355277</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3246.3506627393231</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>0.24978808334795879</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3277.868630338734</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>0.27219488516038981</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3309.386597938144</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0.29460168697282102</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3340.9045655375548</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>0.31700848878525201</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3372.4225331369662</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>0.33941529059768311</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3403.9405007363771</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>0.3618220924101142</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3435.458468335788</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>0.39307817623195462</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3466.9764359351989</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>0.46237291085434917</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3498.4944035346098</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>0.53166764547674372</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3530.0123711340211</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>0.60096238009913838</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3561.530338733432</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>0.67025711472153304</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3593.048306332842</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>0.73955184934392759</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3624.5662739322529</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>0.80884658396632214</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3656.0842415316638</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>0.8781413185887168</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3687.6022091310751</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>0.88665740074604105</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3719.120176730486</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>0.38957095523103619</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3750.6381443298969</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>0.19828265661637379</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3782.1561119293078</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>0.1955066399756929</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3813.6740795287192</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>0.19273062333501201</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3845.1920471281301</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>0.18995460669433109</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3876.710014727541</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>0.1871785900536502</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3908.227982326951</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>0.18440257341296931</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3939.7459499263618</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>0.18162655677228831</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3971.2639175257732</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>0.17885054013160739</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4002.7818851251841</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>0.1760745234909265</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4034.299852724595</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>0.17329850685024559</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4065.8178203240059</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>0.1705224902095647</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4097.3357879234172</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>0.16846612584014761</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4128.8537555228286</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>0.1665766160772861</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4160.3717231222399</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>0.1646871063144246</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4191.8896907216513</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>0.16279759655156309</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4223.4076583210626</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>0.16090808678870161</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4254.925625920474</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>0.1590185770258401</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4286.4435935198853</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>0.15712906726297859</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4317.9615611192967</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>0.15523955750011709</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4349.479528718708</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>0.15335004773725561</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4380.9974963181194</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>0.1514605379743941</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4412.5154639175307</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>0.17940004957492209</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4444.0334315169421</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>0.30889966282197062</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4475.5513991163534</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>0.43839927606901918</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4507.0693667157648</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>0.56789888931606769</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4538.5873343151761</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>0.69739850256311631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4570.1053019145866</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>0.82689811581016481</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4601.6232695139988</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>0.95639772905721332</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4633.1412371134102</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>0.82993592881337008</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4664.6592047128224</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>0.69615036505381656</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4696.1771723122329</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>0.56236480129426314</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4727.6951399116442</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>0.42857923753470972</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4759.2131075110556</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>0.2947936737751562</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4790.7310751104669</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>0.26168541411508761</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4822.2490427098783</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>0.26396321765627512</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4853.7670103092896</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>0.26624102119746262</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4885.284977908701</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>0.26851882473865007</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4916.8029455081123</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>0.27079662827983758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4948.3209131075237</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>0.27307443182102509</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4979.838880706935</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>0.27535223536221259</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>5011.3568483063464</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>0.2776300389034001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>5042.8748159057577</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>0.27990784244458761</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>5074.3927835051691</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>0.71748070080656767</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>5105.9107511045804</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>1.1205017604919469</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5137.4287187039918</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>1.0207383363914659</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>5168.9466863034031</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>0.92097491229098505</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>5200.4646539028136</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>0.82121148819050394</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5231.9826215022258</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>0.72144806409002293</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5263.5005891016372</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>0.62168463998954193</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5295.0185567010494</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>0.52192121588906082</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5326.5365243004599</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>0.42215779178857982</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5358.0544918998712</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>0.32239436768809882</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5389.5724594992826</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>0.22263094358761781</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5421.0904270986939</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>0.1948596398856291</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>5452.6083946981053</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>0.2474790388629094</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>5484.1263622975166</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>0.30009843784018969</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>5515.644329896928</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>0.35271783681746999</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>5547.1622974963393</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>0.40533723579475051</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5578.6802650957507</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>0.45795663477203069</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5610.198232695162</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>0.51057603374931104</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5641.7162002945734</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>0.56319543272659145</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5673.2341678939847</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>0.61581483170387175</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>5704.7521354933961</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>0.66843423068115204</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5736.2701030928074</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>0.3608651619954063</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5767.7880706922188</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>0.1615628700781187</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>5799.3060382916301</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>0.1657917668444425</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5830.8240058910415</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>0.17002066361076629</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5862.3419734904528</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>0.17424956037709011</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5893.8599410898642</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>0.1784784571434139</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5925.3779086892764</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>0.18270735390973769</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5956.8958762886868</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>0.18693625067606151</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5988.4138438880982</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>0.19116514744238541</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6019.9318114875095</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>0.19539404420870921</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>6051.4497790869209</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>0.199622940975033</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>6082.9677466863322</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>0.28389370138875558</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>6114.4857142857436</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>0.37599981445489872</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>6146.0036818851549</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>0.46810592752104169</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>6177.5216494845663</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>0.56021204058718488</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>6209.0396170839776</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>0.65231815365332779</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>6240.557584683389</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>0.74442426671947093</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>6272.0755522828003</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>0.83653037978561384</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>6303.5935198822117</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>0.92863649285175698</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>6335.111487481623</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>1.0207426059178999</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>6366.6294550810344</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>1.112848718984043</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>6398.1474226804457</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>0.58984828589979776</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>6429.6653902798571</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>2.2111340926020771</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>6461.1833578792684</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>1.962941865491618</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>6492.7013254786798</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>1.71474963838116</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>6524.2192930780911</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>1.4665574112707009</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6555.7372606775016</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>1.218365184160243</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>6587.2552282769138</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>0.97017295704978479</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6618.7731958763252</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>0.72198072993932638</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6650.2911634757374</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>0.4737885028288682</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>6681.8091310751479</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>0.26362640941891669</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6713.3270986745592</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>0.6707357831938171</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6744.8450662739706</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>1.1703786497426369</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>6776.3630338733819</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>1.962496883061182</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>6807.8810014727933</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>2.207758346175138</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6839.3989690722046</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>2.3172971584993212</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>6870.916936671616</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>2.426835970823503</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>6902.4349042710273</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>2.5363747831476848</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6933.9528718704387</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>2.6459135954718671</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6965.47083946985</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>2.7554524077960489</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>6996.9888070692614</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>2.8649912201202312</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7028.5067746686727</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>1.7658405430493911</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>7060.0247422680841</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>1.4946960751330911</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7091.5427098674954</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>2.0714343546475429</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>7123.0606774669068</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>2.3039064645380321</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>7154.5786450663181</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>2.29351421276046</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7186.0966126657286</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>2.2831219609828892</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>7217.6145802651408</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>2.2727297092053171</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>7249.1325478645522</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>2.2623374574277459</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>7280.6505154639644</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>2.2519452056501739</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7312.1684830633749</v>
       </c>
@@ -3850,7 +3854,7 @@
         <v>0.49253150488720698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7343.6864506627862</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>0.46396368821170703</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>7375.2044182621976</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>0.80946571295644443</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>7406.7223858616089</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>0.89248983954995875</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>7438.2403534610203</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>0.83488230650358308</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>7469.7583210604316</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>0.7772747734572073</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>7501.276288659843</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>0.71966724041083152</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>7532.7942562592543</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>0.66205970736445585</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>7564.3122238586657</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>0.60445217431807996</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>7595.830191458077</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>0.54684464127170429</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>7627.3481590574884</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>0.48923710822532851</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>7658.8661266568997</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>0.43162957517895267</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7690.3840942563111</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>0.7096659305307178</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7721.9020618557224</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>0.70435913087878943</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>7753.4200294551338</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>0.69905233122686106</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>7784.9379970545451</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>0.69374553157493268</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7816.4559646539556</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>0.68843873192300431</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7847.9739322533678</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>0.68313193227107594</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7879.4918998527792</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>0.67782513261914756</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7911.0098674521914</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>0.67251833296721919</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7942.5278350516019</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>0.66721153331529082</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7974.0458026510132</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>0.66190473366336244</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8005.5637702504246</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>0.65659793401143407</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8037.0817378498359</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>0.6512911343595057</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8068.5997054492473</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>0.78913692266204638</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>8100.1176730486586</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>0.97300976040741094</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8131.63564064807</v>
       </c>
@@ -4214,7 +4218,7 @@
         <v>1.1568825981527751</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>8163.1536082474813</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>1.1846881340617379</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>8194.6715758468927</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>1.2098020524676429</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>8226.189543446304</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>1.2349159708735491</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>8257.7075110457154</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>1.2600298892794539</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8289.2254786451267</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>1.2851438076853601</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8320.7434462445381</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>1.3102577260912649</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8352.2614138439494</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>1.3353716444971711</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>8383.7793814433608</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>1.3604855629030761</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>8415.2973490427721</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>1.385599481308982</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>8446.8153166421835</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>0.86765606211286173</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>8478.3332842415948</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>0.79649481163562785</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>8509.8512518410062</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>0.80389730534695703</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>8541.3692194404175</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>0.81129979905828609</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8572.8871870398289</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>0.81870229276961515</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8604.4051546392402</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>0.82610478648094421</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8635.9231222386516</v>
       </c>
@@ -4438,7 +4442,7 @@
         <v>0.86238364692511371</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8667.4410898380629</v>
       </c>
@@ -4452,7 +4456,7 @@
         <v>0.93073283192640544</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8698.9590574374743</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>0.99908201692769716</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8730.4770250368856</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>1.0674312019289891</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>8761.994992636297</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>1.1357803869302801</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>8793.5129602357083</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>1.2041295719315721</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8825.0309278351197</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>1.197727409959837</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>8856.548895434531</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>1.184301702274879</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>8888.0668630339424</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>1.1708759945899221</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>8919.5848306333537</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>1.157450286904965</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8951.1027982327651</v>
       </c>
@@ -4578,7 +4582,7 @@
         <v>1.144024579220007</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>8982.6207658321764</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>1.1305988715350499</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>9014.1387334315878</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>1.1171731638500919</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>9045.6567010309991</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>1.103747456165135</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>9077.1746686304105</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>1.090321748480177</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>9108.6926362298218</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>1.016853157148037</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>9140.2106038292332</v>
       </c>
@@ -4662,7 +4666,7 @@
         <v>0.94191030095769168</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>9171.7285714286445</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>0.86696744476734655</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>9203.2465390280558</v>
       </c>
@@ -4690,7 +4694,7 @@
         <v>0.79202458857700142</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>9234.7645066274672</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>0.7170817323866564</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>9266.2824742268785</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>0.64213887619631127</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>9297.8004418262899</v>
       </c>
@@ -4732,7 +4736,7 @@
         <v>0.61719526500464916</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9329.3184094257012</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>0.70656961258936801</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9360.8363770251126</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>0.79594396017408686</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>9392.3543446245239</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>0.88531830775880582</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>9423.8723122239353</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>0.97469265534352467</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>9455.3902798233466</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>1.1388784265041001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>9486.908247422758</v>
       </c>
@@ -4816,7 +4820,7 @@
         <v>1.3799813176628799</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>9518.4262150221693</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>1.621084208821659</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>9549.9441826215807</v>
       </c>
@@ -4844,7 +4848,7 @@
         <v>1.8621870999804391</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>9581.462150220992</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>2.103289991139218</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>9612.9801178204034</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>1.636843175967821</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9644.4980854198147</v>
       </c>
@@ -4886,7 +4890,7 @@
         <v>0.77958901087107413</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>9676.0160530192261</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>0.43927691554481219</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>9707.5340206186374</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>0.43820876332332542</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>9739.0519882180488</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>0.43714061110183861</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>9770.5699558174601</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>0.43607245888035179</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>9802.0879234168715</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>0.43500430665886503</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>9833.6058910162828</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>0.43393615443737821</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>9865.1238586156942</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>0.43286800221589128</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>9896.6418262151055</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>0.43179984999440452</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>9928.1597938145169</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>0.4307316977729177</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>9959.6777614139282</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>0.41509600885787562</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>9991.1957290133396</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>0.36777985264360952</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10022.713696612749</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>0.32046369642934341</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10054.23166421216</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>0.27314754021507731</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>10085.74963181157</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>0.22583138400081121</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>10117.26759941098</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>0.17851522778654499</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>10148.7855670104</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>0.13119907157227889</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>10180.30353460981</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>8.3882915358012844E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>10211.821502209221</v>
       </c>
@@ -5138,7 +5142,7 @@
         <v>0.19447353370341711</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>10243.33946980863</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>0.3191809581628588</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>10274.85743740804</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>0.48718216700343409</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>10306.375405007449</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>0.83790139103248784</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>10337.893372606861</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>1.188620615061541</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>10369.411340206279</v>
       </c>
@@ -5208,7 +5212,7 @@
         <v>1.284902848522836</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>10400.929307805691</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>1.2287833319647099</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>10432.4472754051</v>
       </c>
@@ -5236,7 +5240,7 @@
         <v>1.172663815406584</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>10463.96524300451</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>1.116544298848458</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>10495.483210603919</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>1.0604247822903321</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>10527.001178203331</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>1.004305265732206</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>10558.51914580274</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>0.94818574917408083</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>10590.037113402161</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>0.89206623261595497</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>10621.55508100157</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>1.2388813843032189</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10653.07304860098</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>1.6452034642170841</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10684.591016200389</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>2.0442703185488571</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>10716.108983799801</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>3.1179423338903041</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>10747.62695139921</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>4.7224178358187796</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>10779.14491899862</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>6.3268933377472543</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>10810.662886598029</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>7.9313688396757289</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>10842.18085419745</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>9.5358443416042036</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>10873.698821796859</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>10.11994013242372</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>10905.216789396271</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>10.360467301780449</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>10936.73475699568</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>10.600994471137181</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>10968.25272459509</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>0.73495657598475228</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>10999.770692194499</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>0.6691401870205651</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>11031.28865979391</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>0.60332379805637792</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>11062.806627393329</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>0.53750740909219075</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>11094.32459499274</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>0.47169102012800362</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>11125.84256259215</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>0.40587463116381639</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>11157.36053019156</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>0.34005824219962932</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>11188.878497790971</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>0.27424185323544209</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>11220.39646539038</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>0.208425464271255</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>11251.91443298979</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>1.1451571377820919</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>11283.432400589199</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>2.961327893479575</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>11314.95036818862</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>4.7774986491770584</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>11346.468335788029</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>9.0058172166721508</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>11377.986303387441</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>11.784053232605389</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>11409.50427098685</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>11.53792166555459</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>11441.02223858626</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>11.291790098503791</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>11472.540206185669</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>10.82301477727402</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>11504.058173785081</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>9.9271475931631734</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>11535.576141384499</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>9.0312804090523269</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>11567.094108983911</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>8.1354132249414821</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>11598.61207658332</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>9.2548418983433685</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>11630.13004418273</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>10.457212982277751</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>11661.648011782139</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>10.365361326018689</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>11693.165979381551</v>
       </c>
@@ -5796,7 +5800,7 @@
         <v>9.9791643098244069</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>11724.68394698096</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>9.3927539877979491</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11756.201914580381</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>9.5985130190532715</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11787.71988217979</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>10.520853779426229</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11819.2378497792</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>10.70373321779002</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11850.755817378609</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>9.2589236900850711</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11882.273784978021</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>7.9549364775488627</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11913.79175257743</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>8.0718533987247376</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11945.30972017684</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>8.1887703199006108</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11976.827687776249</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>8.3056872410764839</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>12008.34565537567</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>8.4226041622523589</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>12039.863622975079</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>8.539521083428232</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>12071.38159057449</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>9.822548515362282</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>12102.8995581739</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>9.6188716839238921</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>12134.41752577331</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>11.85679288300279</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>12165.935493372721</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>14.094714082081691</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>12197.45346097213</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>11.980559661096491</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>12228.971428571551</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>9.3306810795435986</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>12260.48939617096</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>8.4648776908300825</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>12292.00736377037</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>6.9890968381867804</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>12323.525331369779</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>5.9525988440444149</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>12355.043298969191</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>5.261017540604076</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>12386.5612665686</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>4.0966281080888658</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>12418.07923416801</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>2.8111369176296228</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>12449.597201767419</v>
       </c>
@@ -6132,7 +6136,7 @@
         <v>1.5256457271703809</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>12481.11516936684</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>2.0891419236594562</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>12512.633136966249</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>3.0894298043274788</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>12544.151104565661</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>4.0897176849955033</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>12575.66907216507</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>3.641125989280233</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>12607.18703976448</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>3.1921252553974102</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>12638.705007363889</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>2.743124521514587</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>12670.222974963301</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>5.5100711425105446</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>12701.740942562719</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>8.1744161326291582</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>12733.258910162131</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>2.3174757598010318</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>12764.77687776154</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>3.7639426116929871</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>12796.29484536095</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>2.5423855887463001</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>12827.812812960359</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>1.4153012705844721</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>12859.330780559771</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>1.0871600149945631</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>12890.84874815918</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>1.2563193703033251</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>12922.366715758601</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>2.7217879379923691</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>12953.88468335801</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>3.458650229813355</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>12985.40265095742</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>2.8598632806017452</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>13016.920618556829</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>2.3321380076098608</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>13048.43858615624</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>1.9472562442759791</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>13079.95655375565</v>
       </c>
@@ -6412,7 +6416,7 @@
         <v>1.562374480942097</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>13111.47452135506</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>1.1774927176082159</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>13142.992488954471</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>0.79261095427433403</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>13174.51045655389</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>0.52287939442596854</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>13206.028424153301</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>0.98587456590806943</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>13237.54639175271</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>1.44886973739017</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>13269.06435935212</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>1.911864908872271</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>13300.582326951529</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>1.64601887606538</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>13332.100294550941</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>0.96457307080540966</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>13363.61826215035</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>0.58134110679115703</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>13395.136229749771</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>0.72305858700433812</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>13426.65419734918</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>0.86477606721751932</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>13458.17216494859</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>1.0064935474307</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>13489.690132547999</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>1.1482110276438819</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>13521.208100147411</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>1.37192906736159</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>13552.72606774682</v>
       </c>
@@ -6622,7 +6626,7 @@
         <v>2.4804552528114061</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>13584.24403534623</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>3.0969240418263762</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>13615.762002945639</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>3.7133928308413471</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>13647.27997054506</v>
       </c>
@@ -6664,7 +6668,7 @@
         <v>4.3298616198563167</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>13678.797938144469</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>4.9463304088712867</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>13710.315905743881</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>5.2242442421438477</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>13741.83387334329</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>4.6989762730391007</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>13773.3518409427</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>4.1737083039343537</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>13804.869808542109</v>
       </c>
@@ -6734,7 +6738,7 @@
         <v>3.6484403348296071</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>13836.387776141521</v>
       </c>
@@ -6748,7 +6752,7 @@
         <v>3.1231723657248591</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>13867.905743740939</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>2.597905998708256</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>13899.423711340351</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>2.073039596805442</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>13930.94167893976</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>1.565903468020285</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>13962.45964653917</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>1.2635265590240941</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>13993.977614138579</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>1.143050605849431</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>14025.495581737991</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>1.1869281984922231</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>14057.0135493374</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>1.2308057911350141</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>14088.53151693682</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>1.274683383777806</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>14120.04948453623</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>1.318560976420597</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>14151.56745213564</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>1.362438569063388</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>14183.085419735051</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>1.4063161617061799</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>14214.60338733446</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>1.4501937543489709</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>14246.12135493387</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>1.494071346991763</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>14277.639322533279</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>1.5007458295037699</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>14309.157290132691</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>1.5016081777923529</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>14340.675257732109</v>
       </c>
@@ -6972,7 +6976,7 @@
         <v>1.502470526080935</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>14372.193225331521</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>1.503332874369518</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>14403.71119293093</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>1.504195222658101</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>14435.22916053034</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>1.505057570946684</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>14466.747128129749</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>1.5059199192352659</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>14498.265095729161</v>
       </c>
@@ -7042,7 +7046,7 @@
         <v>1.5067822675238489</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>14529.78306332857</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>1.5076446158124319</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>14561.301030927991</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>1.5085069641010149</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>14592.8189985274</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>1.509369312389597</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>14624.33696612681</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>1.45673599943967</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>14655.854933726219</v>
       </c>
@@ -7112,7 +7116,7 @@
         <v>1.258462731455243</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>14687.372901325631</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>1.0601894634708151</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>14718.89086892504</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>1.088079234664513</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>14750.40883652445</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>1.269553935166041</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>14781.926804123859</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>1.451028635667569</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>14813.44477172328</v>
       </c>
@@ -7182,7 +7186,7 @@
         <v>1.6290297577990609</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>14844.962739322689</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>1.558693853655273</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>14876.480706922101</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>1.488357949511484</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>14907.99867452151</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>1.4180220453676959</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>14939.51664212092</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>1.3476861412239081</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>14971.034609720329</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>1.2773502370801191</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>15002.552577319741</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>1.207014332936331</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>15034.070544919159</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>1.07053636925732</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>15065.58851251857</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>0.80072155702630987</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>15097.10648011798</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>0.5309067447952992</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>15128.62444771739</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>0.63303841958845686</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>15160.142415316801</v>
       </c>
@@ -7336,7 +7340,7 @@
         <v>1.0371741412983779</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>15191.66038291621</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>1.441309863008299</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>15223.17835051562</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1.845445584718221</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>15254.696318115029</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>2.2576720812706119</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>15286.21428571445</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>2.6983083995952679</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>15317.732253313859</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>3.138944717919923</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>15349.250220913271</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>2.8401430451732619</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>15380.76818851268</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>2.3746602938776058</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>15412.28615611209</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>1.909177542581951</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>15443.804123711499</v>
       </c>
@@ -7462,7 +7466,7 @@
         <v>1.4436947912862961</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>15475.322091310911</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>1.0808841398686271</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>15506.840058910329</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>1.084927367167227</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>15538.358026509741</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>1.088970594465827</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>15569.87599410915</v>
       </c>
@@ -7518,7 +7522,7 @@
         <v>1.093013821764427</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>15601.39396170856</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>1.0970570490630269</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>15632.911929307969</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>1.1011002763616271</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>15664.429896907381</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>1.1051435036602271</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>15695.94786450679</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>1.109186730958827</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>15727.465832106211</v>
       </c>
@@ -7588,7 +7592,7 @@
         <v>1.113229958257427</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>15758.98379970562</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>1.1172731855560269</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>15790.50176730503</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>1.1065670149063169</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>15822.019734904439</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>1.0653089765625099</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>15853.537702503851</v>
       </c>
@@ -7644,7 +7648,7 @@
         <v>1.0240509382187031</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>15885.05567010326</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>0.99896989714461304</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>15916.57363770267</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>1.050319310071921</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>15948.091605302079</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>1.1016687229992279</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>15979.6095729015</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>1.1530181359265359</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>16011.127540500909</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>1.2043675488538439</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>16042.645508100321</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>1.255716961781151</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>16074.16347569973</v>
       </c>
@@ -7742,7 +7746,7 @@
         <v>1.307066374708459</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>16105.68144329914</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>2.1779178291706209</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>16137.199410898549</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>3.7101675523387789</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>16168.71737849796</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>4.4438479608702677</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>16200.235346097381</v>
       </c>
@@ -7798,7 +7802,7 @@
         <v>3.7202557952655191</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>16231.75331369679</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>2.99666362966077</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>16263.2712812962</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>2.2730714640560219</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>16294.789248895609</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>1.5494792984512731</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>16326.307216495021</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>1.1353394279553679</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>16357.82518409443</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>1.965510370336695</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>16389.34315169384</v>
       </c>
@@ -7882,7 +7886,7 @@
         <v>2.79568131271802</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>16420.861119293251</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>3.6258522550993462</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>16452.37908689267</v>
       </c>
@@ -7910,7 +7914,7 @@
         <v>5.6360063550191537</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>16483.897054492081</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>4.9585428275649823</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>16515.415022091489</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>4.2810793001108118</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>16546.9329896909</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>3.6036157726566409</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>16578.450957290312</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>2.92615224520247</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>16609.968924889719</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>2.2486887177482999</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>16641.486892489131</v>
       </c>
@@ -7994,7 +7998,7 @@
         <v>1.571225190294129</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>16673.004860088549</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>1.4573623335081489</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>16704.522827687961</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>1.697207146827024</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>16736.040795287368</v>
       </c>
@@ -8036,7 +8040,7 @@
         <v>1.908178058435942</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>16767.55876288678</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>1.7418962149858099</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>16799.076730486191</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>1.575614371535677</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>16830.594698085599</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>1.4093325280855451</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>16862.11266568501</v>
       </c>
@@ -8092,7 +8096,7 @@
         <v>1.2430506846354119</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>16893.630633284429</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>1.07676884118528</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>16925.14860088384</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>0.74052811318761913</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>16956.666568483251</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>1.0722399584891651</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>16988.184536082659</v>
       </c>
@@ -8148,7 +8152,7 @@
         <v>1.5648381068049471</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>17019.702503682071</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>2.057436255120729</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>17051.220471281478</v>
       </c>
@@ -8176,7 +8180,7 @@
         <v>2.550034403436511</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>17082.73843888089</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>3.0343909241773011</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>17114.256406480301</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>2.0242263273320429</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>17145.77437407972</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>1.8900671127302311</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>17177.292341679131</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>1.75590789812842</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>17208.810309278539</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>1.6217486835266079</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>17240.32827687795</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>1.487589468924797</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>17271.846244477361</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>1.3534302543229859</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>17303.364212076769</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>3.193842691613531</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>17334.88217967618</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>2.9483644902991868</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>17366.400147275599</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>2.7028862889848422</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>17397.91811487501</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>2.457408087670498</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>17429.436082474422</v>
       </c>
@@ -8344,7 +8348,7 @@
         <v>2.211929886356153</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>17460.954050073829</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>1.966451685041809</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>17492.472017673241</v>
       </c>
@@ -8372,7 +8376,7 @@
         <v>1.4834124386758101</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>17523.989985272648</v>
       </c>
@@ -8386,7 +8390,7 @@
         <v>0.89292293778756826</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>17555.50795287206</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>0.7192470251930122</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>17587.025920471471</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>0.85787016346617095</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>17618.54388807089</v>
       </c>
@@ -8428,7 +8432,7 @@
         <v>0.99649330173932982</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>17650.061855670301</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>1.1351164400124889</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>17681.579823269709</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>1.2737395782856471</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>17713.09779086912</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>1.412362716558806</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>17744.615758468532</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>1.550985854831965</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>17776.133726067939</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>1.6896089931051239</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>17807.651693667351</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>1.787215556781993</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>17839.169661266769</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>1.23514924532736</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>17870.687628866181</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>0.71988575918119269</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>17902.205596465588</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>0.71817737565908246</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>17933.723564065</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>0.71646899213697224</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>17965.241531664411</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>0.71476060861486201</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>17996.759499263819</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>0.71305222509275179</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>18028.27746686323</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>0.71134384157064157</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>18059.795434462649</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>1.284311746068264</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>18091.31340206206</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>3.0652067520049631</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>18122.831369661471</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>2.1300582627916591</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>18154.349337260879</v>
       </c>
@@ -8666,7 +8670,7 @@
         <v>2.2017520722663262</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>18185.86730486029</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>2.5135367594445048</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>18217.385272459702</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>2.825321446622683</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>18248.90324005911</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>3.137106133800863</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>18280.421207658521</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>3.009694807773263</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>18311.939175257939</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>2.5451061735417029</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>18343.457142857351</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>2.1086328613049532</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>18374.975110456759</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>1.672159549068202</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>18406.49307805617</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>1.2356862368314521</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>18438.011045655581</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>0.7992129245947015</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>18469.529013254989</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>0.36273961235795088</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>18501.0469808544</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>0.53769785288217742</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>18532.564948453819</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>0.92558590660626494</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>18564.08291605323</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>1.313473960330352</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>18595.600883652642</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>1.707675995072456</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>18627.118851252049</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>2.1547758126411618</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>18658.636818851461</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>2.798278034609933</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>18690.154786450868</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>4.4670920677051784</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>18721.67275405028</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>5.1845453324078994</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>18753.190721649691</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>5.0407858494848252</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>18784.70868924911</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>4.8970263665617511</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>18816.226656848521</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>4.7532668836386769</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>18847.744624447929</v>
       </c>
@@ -8974,7 +8978,7 @@
         <v>4.6095074007156027</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>18879.26259204734</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>4.4657479177925294</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>18910.780559646751</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>2.2511969777642489</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>18942.298527246159</v>
       </c>
@@ -9016,7 +9020,7 @@
         <v>2.0664551801553119</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>18973.816494845571</v>
       </c>
@@ -9030,7 +9034,7 @@
         <v>1.881713382546375</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>19005.334462444989</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>1.696971584937438</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>19036.852430044401</v>
       </c>
@@ -9058,7 +9062,7 @@
         <v>1.512229787328502</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>19068.370397643808</v>
       </c>
@@ -9072,7 +9076,7 @@
         <v>1.3274879897195651</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>19099.88836524322</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>1.2484456798382091</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>19131.406332842631</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>1.187879656610993</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>19162.924300442039</v>
       </c>
@@ -9114,7 +9118,7 @@
         <v>1.127313633383777</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>19194.44226804145</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>1.0667476101565609</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>19225.960235640861</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>1.0061815869293449</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>19257.47820324028</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>0.94561556370212863</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>19288.996170839691</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>0.90809180312739335</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>19320.514138439099</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>1.129434602292394</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>19352.03210603851</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>1.350777401457395</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>19383.550073637922</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>1.572120200622396</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>19415.068041237329</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>1.6508668659090819</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>19446.586008836741</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>1.709064115499132</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>19478.103976436159</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>1.767261365089182</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>19509.621944035571</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>1.825458614679232</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>19541.139911634978</v>
       </c>
@@ -9282,7 +9286,7 @@
         <v>1.9230841305336599</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>19572.65787923439</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>2.6089350575238188</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>19604.175846833801</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>3.1354976753442529</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>19635.693814433209</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>2.6687727751915289</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>19667.21178203262</v>
       </c>
@@ -9338,7 +9342,7 @@
         <v>2.2020478750388062</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>19698.729749632039</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>1.735322974886083</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>19730.24771723145</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>1.2685980747333589</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>19761.765684830862</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>0.80187317458063534</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>19793.283652430269</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>2.9881534997967818</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>19824.801620029681</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>2.5173245645253131</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>19856.319587629088</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>2.0464956292538452</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>19887.8375552285</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>1.575666693982376</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>19919.355522827911</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>1.1048377587109079</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>19950.87349042733</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>1.140963878740153</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>19982.391458026741</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>1.4501872038007171</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>20013.909425626149</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>1.759410528861282</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>20045.42739322556</v>
       </c>
@@ -9506,7 +9510,7 @@
         <v>2.0686338539218458</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>20076.945360824971</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>1.5889045949790119</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>20108.463328424379</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>0.77830004711759826</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>20139.98129602379</v>
       </c>
@@ -9548,7 +9552,7 @@
         <v>0.39739799896256311</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>20171.499263623209</v>
       </c>
@@ -9562,7 +9566,7 @@
         <v>1.024318546260979</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>20203.01723122262</v>
       </c>
@@ -9576,7 +9580,7 @@
         <v>1.651239093559395</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>20234.535198822032</v>
       </c>
@@ -9590,7 +9594,7 @@
         <v>2.2781596408578109</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>20266.05316642144</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>1.1880989526682391</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>20297.571134020851</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>1.224059125349138</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>20329.089101620259</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>1.260019298030036</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>20360.60706921967</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>1.295979470710934</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>20392.125036819081</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>1.3319396433918329</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>20423.6430044185</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>1.3678998160727309</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>20455.160972017911</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>1.4038599887536301</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>20486.678939617319</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>1.4398201614345281</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>20518.19690721673</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>1.475780334115427</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>20549.714874816142</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>0.91878267934419078</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>20581.232842415549</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>1.1453590639029529</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>20612.750810014961</v>
       </c>
@@ -9758,7 +9762,7 @@
         <v>1.3719354484617159</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>20644.268777614379</v>
       </c>
@@ -9772,7 +9776,7 @@
         <v>1.5985118330204779</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>20675.786745213791</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>1.82508821757924</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>20707.304712813198</v>
       </c>
@@ -9800,7 +9804,7 @@
         <v>2.8545736845289782</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>20738.82268041261</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>2.9614645779419608</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>20770.340648012021</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>3.0683554713549439</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>20801.858615611429</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>3.175246364767927</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>20833.37658321084</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>3.2821372581809101</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>20864.894550810259</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>3.3890281515938931</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>20896.41251840967</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>3.0322297943393601</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>20927.930486009082</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>1.2268527682861701</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>20959.448453608489</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>0.98412030795918648</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>20990.966421207901</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>0.98889322650229405</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>21022.484388807308</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>0.99366614504540174</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>21054.00235640672</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>0.99843906358850942</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>21085.520324006131</v>
       </c>
@@ -9968,7 +9972,7 @@
         <v>1.003211982131617</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>21117.03829160555</v>
       </c>
@@ -9982,7 +9986,7 @@
         <v>1.007984900674725</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>21148.556259204961</v>
       </c>
@@ -9996,7 +10000,7 @@
         <v>1.0127578192178319</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>21180.074226804369</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>1.0175307377609399</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>21211.59219440378</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>1.127091039657304</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>21243.110162003191</v>
       </c>
@@ -10038,7 +10042,7 @@
         <v>1.348971711736259</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>21274.628129602599</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>1.5708523838152131</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>21306.14609720201</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>2.959282297557198</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>21337.664064801429</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>4.7717109276473337</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>21369.18203240084</v>
       </c>
@@ -10094,7 +10098,7 @@
         <v>5.6275203615638478</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>21400.700000000252</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>4.5217726193529204</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>21404.540000000248</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>4.3870535478678212</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>21408.80000000025</v>
       </c>
@@ -10136,7 +10140,7 @@
         <v>4.2375995779391022</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>21412.920000000249</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>4.0930572408249226</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>21427.84000000024</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>3.5696175151589431</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>21434.550000000239</v>
       </c>
@@ -10178,7 +10182,7 @@
         <v>3.3342099709753859</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>21463.700000000241</v>
       </c>
@@ -10192,7 +10196,7 @@
         <v>2.3115378528007309</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>21499.00000000024</v>
       </c>
@@ -10219,15 +10223,15 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -10406,7 +10410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -10442,7 +10446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -10478,7 +10482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -10622,7 +10626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" s="1"/>
     </row>
   </sheetData>
@@ -10648,15 +10652,15 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10691,7 +10695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -10727,7 +10731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -10763,7 +10767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -10871,7 +10875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -11051,7 +11055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
     </row>
   </sheetData>
@@ -11104,15 +11108,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11147,7 +11151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -11219,7 +11223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -11327,7 +11331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -11471,7 +11475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
     </row>
   </sheetData>
@@ -11557,18 +11561,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -11590,7 +11594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -11601,7 +11605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -11621,7 +11625,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -11632,18 +11636,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>13000.01</v>
+        <v>18000.099999999999</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -11667,19 +11671,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
     </row>
   </sheetData>

--- a/Input/NewData.xlsx
+++ b/Input/NewData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Model_v2.0/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Torque-and-Drag/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{92381814-82D4-4EE5-A297-684D07C9B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFF464B-90CC-4138-9012-F6B50D929875}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{92381814-82D4-4EE5-A297-684D07C9B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2127465A-E6A8-44D8-9699-7873305F1326}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32355" yWindow="1245" windowWidth="21600" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
     <sheet name="BHA" sheetId="1" r:id="rId2"/>
     <sheet name="BHA_REST1" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="BHA_REST2" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="ADVANCED" sheetId="9" r:id="rId5"/>
+    <sheet name="Borehole_Properties" sheetId="11" r:id="rId5"/>
+    <sheet name="ADVANCED" sheetId="9" r:id="rId6"/>
+    <sheet name="PUMP" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>BHA Type</t>
   </si>
@@ -153,15 +155,6 @@
     <t>in</t>
   </si>
   <si>
-    <t>Young's Modulus</t>
-  </si>
-  <si>
-    <t>Bulk Modulus</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
     <t>Mud Density</t>
   </si>
   <si>
@@ -174,10 +167,19 @@
     <t>Steel Density</t>
   </si>
   <si>
-    <t>Run Time</t>
+    <t>Number of Items</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Element Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Flow Rate</t>
+  </si>
+  <si>
+    <t>GPM</t>
   </si>
 </sst>
 </file>
@@ -577,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB77188-32FA-43EE-BD2E-FA6085E2DDB4}">
   <dimension ref="A1:D688"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H363" sqref="H363"/>
+    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="A688" sqref="A688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,10 +10224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10236,7 +10238,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10244,358 +10246,406 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>31.5*C2</f>
         <v>31.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E9" si="0">E3+D2</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="F2" s="1">
         <v>5.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>4.78</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G8" si="0">C2+G3</f>
-        <v>130.80000000000001</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>816.79*C2</f>
         <v>816.79</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>3.84*C3</f>
         <v>3.84</v>
       </c>
-      <c r="D3" s="1">
-        <v>7.27</v>
-      </c>
       <c r="E3" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>99.3</v>
       </c>
+      <c r="F3" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.75</v>
+      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>465.52*C3</f>
         <v>465.52</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>4.26*C4</f>
         <v>4.26</v>
       </c>
-      <c r="D4" s="1">
-        <v>6.75</v>
-      </c>
       <c r="E4" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>95.46</v>
       </c>
+      <c r="F4" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.25</v>
+      </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f>399.08*C4</f>
         <v>399.08</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f>4.12*C5</f>
         <v>4.12</v>
       </c>
-      <c r="D5" s="1">
-        <v>6.75</v>
-      </c>
       <c r="E5" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>91.199999999999989</v>
       </c>
+      <c r="F5" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.75</v>
+      </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f>419.05*C5</f>
         <v>419.05</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f>14.92*C6</f>
         <v>14.92</v>
       </c>
-      <c r="D6" s="1">
-        <v>6.75</v>
-      </c>
       <c r="E6" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>87.079999999999984</v>
       </c>
+      <c r="F6" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.25</v>
+      </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1397.71*C6</f>
         <v>1397.71</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f>6.71*C7</f>
         <v>6.71</v>
       </c>
-      <c r="D7" s="1">
-        <v>6.75</v>
-      </c>
       <c r="E7" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>72.159999999999982</v>
       </c>
+      <c r="F7" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.25</v>
+      </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f>628.59*C7</f>
         <v>628.59</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f>29.15*C8</f>
         <v>29.15</v>
       </c>
-      <c r="D8" s="1">
-        <v>6.75</v>
-      </c>
       <c r="E8" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>65.449999999999989</v>
       </c>
+      <c r="F8" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.25</v>
+      </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f>2730.77*C8</f>
         <v>2730.77</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f>35.3*C9</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>3.25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <f>C9+G10</f>
-        <v>36.299999999999997</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f>3212.3*C9</f>
         <v>3212.3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
+        <f>1*C10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f>E11+D10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>7.95</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>2.83</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>8.75</v>
       </c>
-      <c r="G10" s="1">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
+        <f>100.64*C10</f>
         <v>100.64</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
   </sheetData>
@@ -11526,11 +11576,118 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82230D03-D6E7-494D-8D5E-D2E1D0E431ED}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923E49D-3BBC-49B4-9B07-9E9EA57DE157}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11554,127 +11711,100 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
-        <v>65.5</v>
+        <v>22000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="6">
+        <v>31.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.15</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8.75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13000</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6">
-        <f>79300000000</f>
-        <v>79300000000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="6">
-        <f>210000000000</f>
-        <v>210000000000</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F0E97-B26E-41BD-8C4D-CF7A3B7EAA00}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>